--- a/tools/0_LJW_tools/连接规则.xlsx
+++ b/tools/0_LJW_tools/连接规则.xlsx
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N6" sqref="N5:N6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
